--- a/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CA1" sheetId="1" r:id="rId1"/>
-    <sheet name="CA2" sheetId="2" r:id="rId4"/>
-    <sheet name="CA3" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CA1  0-1-100-700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CA2  0-1-100-700 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CA3  0-1-100-700 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA1</a:t>
+              <a:t>Izoterma adsorpcji probki CA1 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CA1!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CA1  0-1-100-700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CA1  0-1-100-700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA2</a:t>
+              <a:t>Izoterma adsorpcji probki CA2 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CA2!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CA2  0-1-100-700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA2!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CA2  0-1-100-700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA3</a:t>
+              <a:t>Izoterma adsorpcji probki CA3 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CA3!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CA3  0-1-100-700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA3!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CA3  0-1-100-700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,301 +3120,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0087</v>
+        <v>0.9925</v>
       </c>
       <c r="B3" s="0">
-        <v>175.7969</v>
+        <v>535.799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0251</v>
+        <v>0.9549</v>
       </c>
       <c r="B4" s="0">
-        <v>195.6272</v>
+        <v>500.0491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0448</v>
+        <v>0.9414</v>
       </c>
       <c r="B5" s="0">
-        <v>217.3129</v>
+        <v>491.6423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0699</v>
+        <v>0.9023</v>
       </c>
       <c r="B6" s="0">
-        <v>235.4946</v>
+        <v>471.6834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0918</v>
+        <v>0.8481</v>
       </c>
       <c r="B7" s="0">
-        <v>246.0998</v>
+        <v>448.5825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1203</v>
+        <v>0.8015</v>
       </c>
       <c r="B8" s="0">
-        <v>258.3022</v>
+        <v>432.8421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1488</v>
+        <v>0.7008</v>
       </c>
       <c r="B9" s="0">
-        <v>266.6929</v>
+        <v>400.3166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1773</v>
+        <v>0.6045</v>
       </c>
       <c r="B10" s="0">
-        <v>278.5557</v>
+        <v>375.1547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2057</v>
+        <v>0.5038</v>
       </c>
       <c r="B11" s="0">
-        <v>284.3071</v>
+        <v>352.1029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2342</v>
+        <v>0.4526</v>
       </c>
       <c r="B12" s="0">
-        <v>292.6328</v>
+        <v>341.6304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2627</v>
+        <v>0.3985</v>
       </c>
       <c r="B13" s="0">
-        <v>297.6518</v>
+        <v>330.1084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2912</v>
+        <v>0.3504</v>
       </c>
       <c r="B14" s="0">
-        <v>307.3202</v>
+        <v>318.5801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3197</v>
+        <v>0.3023</v>
       </c>
       <c r="B15" s="0">
-        <v>312.1636</v>
+        <v>307.0518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3481</v>
+        <v>0.2526</v>
       </c>
       <c r="B16" s="0">
-        <v>318.8716</v>
+        <v>294.4725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3766</v>
+        <v>0.1985</v>
       </c>
       <c r="B17" s="0">
-        <v>327.6103</v>
+        <v>281.8979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4051</v>
+        <v>0.1489</v>
       </c>
       <c r="B18" s="0">
-        <v>332.1283</v>
+        <v>265.108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4336</v>
+        <v>0.1008</v>
       </c>
       <c r="B19" s="0">
-        <v>339.8475</v>
+        <v>249.3692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.462</v>
+        <v>0.0511</v>
       </c>
       <c r="B20" s="0">
-        <v>345.7061</v>
+        <v>225.2109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4905</v>
+        <v>0.0331</v>
       </c>
       <c r="B21" s="0">
-        <v>350.6505</v>
+        <v>210.4931</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.518</v>
+        <v>0.0226</v>
       </c>
       <c r="B22" s="0">
-        <v>354.4593</v>
+        <v>199.9778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5483</v>
+        <v>0.018</v>
       </c>
       <c r="B23" s="0">
-        <v>366.1728</v>
+        <v>194.7194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.576</v>
+        <v>0.0135</v>
       </c>
       <c r="B24" s="0">
-        <v>372.7453</v>
+        <v>186.3031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.636</v>
+        <v>0.0105</v>
       </c>
       <c r="B25" s="0">
-        <v>386.0418</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6624</v>
-      </c>
-      <c r="B26" s="0">
-        <v>392.5887</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.696</v>
-      </c>
-      <c r="B27" s="0">
-        <v>398.2257</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7241</v>
-      </c>
-      <c r="B28" s="0">
-        <v>406.6038</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.7574</v>
-      </c>
-      <c r="B29" s="0">
-        <v>416.8953</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7843</v>
-      </c>
-      <c r="B30" s="0">
-        <v>424.9557</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8121</v>
-      </c>
-      <c r="B31" s="0">
-        <v>433.2518</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.8474</v>
-      </c>
-      <c r="B32" s="0">
-        <v>448.0547</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8743</v>
-      </c>
-      <c r="B33" s="0">
-        <v>458.8834</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9041</v>
-      </c>
-      <c r="B34" s="0">
-        <v>471.2461</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.936</v>
-      </c>
-      <c r="B35" s="0">
-        <v>488.6437</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9757</v>
-      </c>
-      <c r="B36" s="0">
-        <v>523.3335</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.993</v>
-      </c>
-      <c r="B37" s="0">
-        <v>535.9446</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6015</v>
-      </c>
-      <c r="B38" s="0">
-        <v>378.3158</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9594</v>
-      </c>
-      <c r="B39" s="0">
-        <v>503.2022</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>173.6747</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3423,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3444,269 +3332,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0094</v>
+        <v>0.9925</v>
       </c>
       <c r="B3" s="0">
-        <v>224.2687</v>
+        <v>650.5358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0296</v>
+        <v>0.9594</v>
       </c>
       <c r="B4" s="0">
-        <v>249.3685</v>
+        <v>598.9917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0547</v>
+        <v>0.9368</v>
       </c>
       <c r="B5" s="0">
-        <v>273.7496</v>
+        <v>587.4365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0878</v>
+        <v>0.8992</v>
       </c>
       <c r="B6" s="0">
-        <v>297.9019</v>
+        <v>570.634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1203</v>
+        <v>0.8481</v>
       </c>
       <c r="B7" s="0">
-        <v>313.2845</v>
+        <v>544.372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1529</v>
+        <v>0.803</v>
       </c>
       <c r="B8" s="0">
-        <v>329.527</v>
+        <v>526.5247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1854</v>
+        <v>0.7053</v>
       </c>
       <c r="B9" s="0">
-        <v>343.2955</v>
+        <v>489.7855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.218</v>
+        <v>0.5985</v>
       </c>
       <c r="B10" s="0">
-        <v>353.5843</v>
+        <v>467.7926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2505</v>
+        <v>0.5008</v>
       </c>
       <c r="B11" s="0">
-        <v>366.5875</v>
+        <v>441.5797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.283</v>
+        <v>0.4511</v>
       </c>
       <c r="B12" s="0">
-        <v>378.7007</v>
+        <v>429.0004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3156</v>
+        <v>0.4015</v>
       </c>
       <c r="B13" s="0">
-        <v>388.1886</v>
+        <v>413.2632</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3481</v>
+        <v>0.3534</v>
       </c>
       <c r="B14" s="0">
-        <v>399.0381</v>
+        <v>400.6822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3807</v>
+        <v>0.3008</v>
       </c>
       <c r="B15" s="0">
-        <v>410.8893</v>
+        <v>383.8955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4132</v>
+        <v>0.2496</v>
       </c>
       <c r="B16" s="0">
-        <v>420.7607</v>
+        <v>367.1072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4478</v>
+        <v>0.2</v>
       </c>
       <c r="B17" s="0">
-        <v>429.3716</v>
+        <v>349.2647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4783</v>
+        <v>0.1534</v>
       </c>
       <c r="B18" s="0">
-        <v>437.061</v>
+        <v>331.4191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5109</v>
+        <v>0.1038</v>
       </c>
       <c r="B19" s="0">
-        <v>445.0569</v>
+        <v>305.1555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5434</v>
+        <v>0.0526</v>
       </c>
       <c r="B20" s="0">
-        <v>454.6486</v>
+        <v>274.683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.576</v>
+        <v>0.0316</v>
       </c>
       <c r="B21" s="0">
-        <v>463.6916</v>
+        <v>255.7578</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6085</v>
+        <v>0.0241</v>
       </c>
       <c r="B22" s="0">
-        <v>470.1182</v>
+        <v>247.3447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.641</v>
+        <v>0.0135</v>
       </c>
       <c r="B23" s="0">
-        <v>479.4637</v>
+        <v>232.6189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6736</v>
+        <v>0.0105</v>
       </c>
       <c r="B24" s="0">
-        <v>487.5278</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.7061</v>
-      </c>
-      <c r="B25" s="0">
-        <v>491.7702</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7387</v>
-      </c>
-      <c r="B26" s="0">
-        <v>503.8339</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.7712</v>
-      </c>
-      <c r="B27" s="0">
-        <v>512.5654</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8038</v>
-      </c>
-      <c r="B28" s="0">
-        <v>525.47</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8363</v>
-      </c>
-      <c r="B29" s="0">
-        <v>537.4635</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8689</v>
-      </c>
-      <c r="B30" s="0">
-        <v>549.5576</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9014</v>
-      </c>
-      <c r="B31" s="0">
-        <v>568.6623</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9367</v>
-      </c>
-      <c r="B32" s="0">
-        <v>587.038</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9614</v>
-      </c>
-      <c r="B33" s="0">
-        <v>602.4549</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9805</v>
-      </c>
-      <c r="B34" s="0">
-        <v>634.8009</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.995</v>
-      </c>
-      <c r="B35" s="0">
-        <v>650.0901</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>221.0431</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3715,7 +3515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3736,277 +3536,149 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0095</v>
+        <v>0.9925</v>
       </c>
       <c r="B3" s="0">
-        <v>210.7108</v>
+        <v>691.5884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0227</v>
+        <v>0.9579</v>
       </c>
       <c r="B4" s="0">
-        <v>237.3751</v>
+        <v>634.7827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.045</v>
+        <v>0.9368</v>
       </c>
       <c r="B5" s="0">
-        <v>253.3749</v>
+        <v>619.0154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0605</v>
+        <v>0.8992</v>
       </c>
       <c r="B6" s="0">
-        <v>270.5289</v>
+        <v>593.7918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0898</v>
+        <v>0.8511</v>
       </c>
       <c r="B7" s="0">
-        <v>288.9772</v>
+        <v>565.4214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1207</v>
+        <v>0.8</v>
       </c>
       <c r="B8" s="0">
-        <v>305.1173</v>
+        <v>546.5279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1492</v>
+        <v>0.7053</v>
       </c>
       <c r="B9" s="0">
-        <v>317.1757</v>
+        <v>517.1539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1834</v>
+        <v>0.6</v>
       </c>
       <c r="B10" s="0">
-        <v>333.9534</v>
+        <v>485.6858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2159</v>
+        <v>0.4962</v>
       </c>
       <c r="B11" s="0">
-        <v>345.5771</v>
+        <v>452.1108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2464</v>
+        <v>0.2992</v>
       </c>
       <c r="B12" s="0">
-        <v>356.4402</v>
+        <v>382.8445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.279</v>
+        <v>0.2511</v>
       </c>
       <c r="B13" s="0">
-        <v>372.7806</v>
+        <v>361.8425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3075</v>
+        <v>0.1985</v>
       </c>
       <c r="B14" s="0">
-        <v>376.0052</v>
+        <v>340.8453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3554</v>
+        <v>0.1504</v>
       </c>
       <c r="B15" s="0">
-        <v>410.0566</v>
+        <v>319.8433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3868</v>
+        <v>0.1038</v>
       </c>
       <c r="B16" s="0">
-        <v>422.2698</v>
+        <v>296.7345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4219</v>
+        <v>0.0511</v>
       </c>
       <c r="B17" s="0">
-        <v>426.0764</v>
+        <v>265.2109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4523</v>
+        <v>0.0271</v>
       </c>
       <c r="B18" s="0">
-        <v>437.961</v>
+        <v>247.3415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4844</v>
+        <v>0.0211</v>
       </c>
       <c r="B19" s="0">
-        <v>449.2822</v>
+        <v>239.9794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.517</v>
+        <v>0.006</v>
       </c>
       <c r="B20" s="0">
-        <v>459.838</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5495</v>
-      </c>
-      <c r="B21" s="0">
-        <v>470.6163</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5821</v>
-      </c>
-      <c r="B22" s="0">
-        <v>481.0832</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.6146</v>
-      </c>
-      <c r="B23" s="0">
-        <v>489.9482</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6472</v>
-      </c>
-      <c r="B24" s="0">
-        <v>500.4595</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.6797</v>
-      </c>
-      <c r="B25" s="0">
-        <v>509.814</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7122</v>
-      </c>
-      <c r="B26" s="0">
-        <v>517.0622</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.7448</v>
-      </c>
-      <c r="B27" s="0">
-        <v>527.5884</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7773</v>
-      </c>
-      <c r="B28" s="0">
-        <v>537.3878</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8099</v>
-      </c>
-      <c r="B29" s="0">
-        <v>547.6767</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8424</v>
-      </c>
-      <c r="B30" s="0">
-        <v>560.7243</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8741</v>
-      </c>
-      <c r="B31" s="0">
-        <v>576.231</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B32" s="0">
-        <v>598.2727</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9315</v>
-      </c>
-      <c r="B33" s="0">
-        <v>623.4682</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.958</v>
-      </c>
-      <c r="B34" s="0">
-        <v>641.1306</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9833</v>
-      </c>
-      <c r="B35" s="0">
-        <v>671.3924</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9923</v>
-      </c>
-      <c r="B36" s="0">
-        <v>688.4764</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>213.6795</v>
+      </c>
+    </row>
+    <row r="21"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
@@ -5,16 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 CA1  0-1-100-700 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 CA2  0-1-100-700 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 CA3  0-1-100-700 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CA1  0&amp;1&amp;100&amp;700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CA2  0&amp;1&amp;100&amp;700 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CA3  0&amp;1&amp;100&amp;700 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CA4  0&amp;1&amp;100&amp;900 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 CA5  0&amp;1&amp;100&amp;900 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 CA6  0&amp;1&amp;100&amp;900 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CA1</t>
   </si>
@@ -29,6 +32,15 @@
   </si>
   <si>
     <t>CA3</t>
+  </si>
+  <si>
+    <t>CA4</t>
+  </si>
+  <si>
+    <t>CA5</t>
+  </si>
+  <si>
+    <t>CA6</t>
   </si>
 </sst>
 </file>
@@ -164,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA1  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CA1  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA1  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CA1  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA2  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CA2  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA2  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CA2  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA3  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CA3  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA3  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CA3  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -882,6 +894,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CA4 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA4  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA4  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CA5 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA5  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA5  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CA6 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA6  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CA6  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1134,6 +2088,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +3251,1569 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +5422,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3683,4 +6425,624 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9917</v>
+      </c>
+      <c r="B3" s="0">
+        <v>833.2892</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9613</v>
+      </c>
+      <c r="B4" s="0">
+        <v>763.9312</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.937</v>
+      </c>
+      <c r="B5" s="0">
+        <v>737.4586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8968</v>
+      </c>
+      <c r="B6" s="0">
+        <v>694.5731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8467</v>
+      </c>
+      <c r="B7" s="0">
+        <v>647.9815</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7989</v>
+      </c>
+      <c r="B8" s="0">
+        <v>605.096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6995</v>
+      </c>
+      <c r="B9" s="0">
+        <v>539.9735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B10" s="0">
+        <v>491.2641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4977</v>
+      </c>
+      <c r="B11" s="0">
+        <v>450.4964</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4537</v>
+      </c>
+      <c r="B12" s="0">
+        <v>433.5539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3983</v>
+      </c>
+      <c r="B13" s="0">
+        <v>412.9054</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3505</v>
+      </c>
+      <c r="B14" s="0">
+        <v>396.4924</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2997</v>
+      </c>
+      <c r="B15" s="0">
+        <v>376.9027</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2489</v>
+      </c>
+      <c r="B16" s="0">
+        <v>358.9014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1988</v>
+      </c>
+      <c r="B17" s="0">
+        <v>340.3706</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.148</v>
+      </c>
+      <c r="B18" s="0">
+        <v>317.6042</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1009</v>
+      </c>
+      <c r="B19" s="0">
+        <v>294.8379</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0493</v>
+      </c>
+      <c r="B20" s="0">
+        <v>259.8941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0296</v>
+      </c>
+      <c r="B21" s="0">
+        <v>238.7161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0205</v>
+      </c>
+      <c r="B22" s="0">
+        <v>230.2449</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0144</v>
+      </c>
+      <c r="B23" s="0">
+        <v>216.4792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0076</v>
+      </c>
+      <c r="B24" s="0">
+        <v>204.3018</v>
+      </c>
+    </row>
+    <row r="25"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9954</v>
+      </c>
+      <c r="B3" s="0">
+        <v>575.9762</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9598</v>
+      </c>
+      <c r="B4" s="0">
+        <v>521.4428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9401</v>
+      </c>
+      <c r="B5" s="0">
+        <v>503.9709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9036</v>
+      </c>
+      <c r="B6" s="0">
+        <v>479.0867</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.852</v>
+      </c>
+      <c r="B7" s="0">
+        <v>448.908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8035</v>
+      </c>
+      <c r="B8" s="0">
+        <v>421.906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7011</v>
+      </c>
+      <c r="B9" s="0">
+        <v>373.726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5979</v>
+      </c>
+      <c r="B10" s="0">
+        <v>336.135</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4985</v>
+      </c>
+      <c r="B11" s="0">
+        <v>304.368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4476</v>
+      </c>
+      <c r="B12" s="0">
+        <v>292.1906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3991</v>
+      </c>
+      <c r="B13" s="0">
+        <v>278.4249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3467</v>
+      </c>
+      <c r="B14" s="0">
+        <v>265.7181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3005</v>
+      </c>
+      <c r="B15" s="0">
+        <v>251.9523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2489</v>
+      </c>
+      <c r="B16" s="0">
+        <v>239.2455</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2049</v>
+      </c>
+      <c r="B17" s="0">
+        <v>228.1271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.195</v>
+      </c>
+      <c r="B18" s="0">
+        <v>226.0093</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.151</v>
+      </c>
+      <c r="B19" s="0">
+        <v>213.8319</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1002</v>
+      </c>
+      <c r="B20" s="0">
+        <v>198.4778</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0486</v>
+      </c>
+      <c r="B21" s="0">
+        <v>179.4176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0288</v>
+      </c>
+      <c r="B22" s="0">
+        <v>166.7108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0129</v>
+      </c>
+      <c r="B23" s="0">
+        <v>152.9451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0076</v>
+      </c>
+      <c r="B24" s="0">
+        <v>143.415</v>
+      </c>
+    </row>
+    <row r="25"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9924</v>
+      </c>
+      <c r="B3" s="0">
+        <v>722.1046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9621</v>
+      </c>
+      <c r="B4" s="0">
+        <v>656.4527</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9401</v>
+      </c>
+      <c r="B5" s="0">
+        <v>635.2747</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8983</v>
+      </c>
+      <c r="B6" s="0">
+        <v>603.5076</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8498</v>
+      </c>
+      <c r="B7" s="0">
+        <v>563.2694</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7997</v>
+      </c>
+      <c r="B8" s="0">
+        <v>529.3845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7018</v>
+      </c>
+      <c r="B9" s="0">
+        <v>473.7922</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6017</v>
+      </c>
+      <c r="B10" s="0">
+        <v>427.2005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4962</v>
+      </c>
+      <c r="B11" s="0">
+        <v>386.9623</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4507</v>
+      </c>
+      <c r="B12" s="0">
+        <v>371.6082</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3945</v>
+      </c>
+      <c r="B13" s="0">
+        <v>353.6069</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3467</v>
+      </c>
+      <c r="B14" s="0">
+        <v>336.6645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2974</v>
+      </c>
+      <c r="B15" s="0">
+        <v>320.2515</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2473</v>
+      </c>
+      <c r="B16" s="0">
+        <v>303.3091</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1995</v>
+      </c>
+      <c r="B17" s="0">
+        <v>287.4255</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1457</v>
+      </c>
+      <c r="B18" s="0">
+        <v>268.8948</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1009</v>
+      </c>
+      <c r="B19" s="0">
+        <v>249.8345</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0508</v>
+      </c>
+      <c r="B20" s="0">
+        <v>224.9504</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0303</v>
+      </c>
+      <c r="B21" s="0">
+        <v>209.0668</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0197</v>
+      </c>
+      <c r="B22" s="0">
+        <v>203.2429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0114</v>
+      </c>
+      <c r="B23" s="0">
+        <v>189.4772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0038</v>
+      </c>
+      <c r="B24" s="0">
+        <v>178.3587</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.003</v>
+      </c>
+      <c r="B25" s="0">
+        <v>166.1813</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 109 Preparation of activated carbons/Data109_all_graphs_excel.xlsx
@@ -8,9 +8,9 @@
     <sheet name="Figure 2 CA1  0&amp;1&amp;100&amp;700 " sheetId="1" r:id="rId1"/>
     <sheet name="Figure 2 CA2  0&amp;1&amp;100&amp;700 " sheetId="2" r:id="rId4"/>
     <sheet name="Figure 2 CA3  0&amp;1&amp;100&amp;700 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 CA4  0&amp;1&amp;100&amp;900 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 CA5  0&amp;1&amp;100&amp;900 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 CA6  0&amp;1&amp;100&amp;900 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 CA4  0&amp;1&amp;100&amp;900 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 CA5  0&amp;1&amp;100&amp;900 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 CA6  0&amp;1&amp;100&amp;900 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -1059,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA4 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki CA4 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA4  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 CA4  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA4  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 CA4  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1373,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA5 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki CA5 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA5  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 CA5  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA5  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 CA5  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1687,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CA6 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki CA6 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CA6  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 CA6  0&amp;1&amp;100&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CA6  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 CA6  0&amp;1&amp;100&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
